--- a/medicine/Sexualité et sexologie/Gala_Fur/Gala_Fur.xlsx
+++ b/medicine/Sexualité et sexologie/Gala_Fur/Gala_Fur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gala Fur est une cinéaste, écrivaine et journaliste française, née en 1948[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gala Fur est une cinéaste, écrivaine et journaliste française, née en 1948.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gala Fur a fait des études d’Histoire de l'art,  et d’Archéologie à l'Université Paris IV-Sorbonne, et vit à Saint-Germain-des-Prés. Journaliste indépendante, elle a collaboré à des magazines comme Lui, VSD, Playboy, Penthouse, Union, l'Écho des savanes, etc. Elle publie des romans en partie autobiographiques[2] et des manuels sur le thème du BDSM aux éditions La Musardine[3],[4]. L’exposition Kunst und Krieg organisée par Peter Weibel à la Neue Galerie de la ville de Graz, élue capitale culturelle européenne en 2003, a exposé ses œuvres, dont L’écrivain et son chien, un court-métrage tourné avec Pierre Bourgeade en 2005.
-Gala Fur a décrit les soirées fétichistes européennes, l'Europerve d’Amsterdam, le Rubber Ball et la Torture Garden à Londres réservées aux pratiquants du BDSM dans Les soirées de Gala, à une époque où ces pratiques n'avaient pas été banalisées par le best-seller Cinquante nuances de Grey (Fifty Shades of Grey). Le succès de cet ouvrage la fait intervenir pour divers médias, dont le journal Le Monde[3], la radio France Inter[5] ou le magazine Elle[6].
-En 2016, elle publie aux mêmes éditions La Musardine le Dictionnaire du BDSM[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gala Fur a fait des études d’Histoire de l'art,  et d’Archéologie à l'Université Paris IV-Sorbonne, et vit à Saint-Germain-des-Prés. Journaliste indépendante, elle a collaboré à des magazines comme Lui, VSD, Playboy, Penthouse, Union, l'Écho des savanes, etc. Elle publie des romans en partie autobiographiques et des manuels sur le thème du BDSM aux éditions La Musardine,. L’exposition Kunst und Krieg organisée par Peter Weibel à la Neue Galerie de la ville de Graz, élue capitale culturelle européenne en 2003, a exposé ses œuvres, dont L’écrivain et son chien, un court-métrage tourné avec Pierre Bourgeade en 2005.
+Gala Fur a décrit les soirées fétichistes européennes, l'Europerve d’Amsterdam, le Rubber Ball et la Torture Garden à Londres réservées aux pratiquants du BDSM dans Les soirées de Gala, à une époque où ces pratiques n'avaient pas été banalisées par le best-seller Cinquante nuances de Grey (Fifty Shades of Grey). Le succès de cet ouvrage la fait intervenir pour divers médias, dont le journal Le Monde, la radio France Inter ou le magazine Elle.
+En 2016, elle publie aux mêmes éditions La Musardine le Dictionnaire du BDSM.
 </t>
         </is>
       </c>
@@ -546,18 +560,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Manuels et dictionnaire
-Osez tout savoir sur le sadomasochisme, La Musardine, 2003  (ISBN 2-84271-200-5)[8]
-Osez les jeux de soumission et de domination, La Musardine, 2009 (ISBN 978-2-842714-11-6)[9] ; rééd. illustrée par Axterdam, 2017
-Dictionnaire du BDSM[7], La Musardine, 2016  (ISBN 978-2-84271-825-1)[10]
-Romans
-Les soirées de Gala, Ornicar, 1999  (ISBN 2-913888-00-3)[11], La Musardine, 2001  (ISBN 2-84271-227-7)[12]
-Séances, La Musardine, 2003  (ISBN 2-84271-169-6) [13]
+          <t>Manuels et dictionnaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Osez tout savoir sur le sadomasochisme, La Musardine, 2003  (ISBN 2-84271-200-5)
+Osez les jeux de soumission et de domination, La Musardine, 2009 (ISBN 978-2-842714-11-6) ; rééd. illustrée par Axterdam, 2017
+Dictionnaire du BDSM, La Musardine, 2016  (ISBN 978-2-84271-825-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gala_Fur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gala_Fur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les soirées de Gala, Ornicar, 1999  (ISBN 2-913888-00-3), La Musardine, 2001  (ISBN 2-84271-227-7)
+Séances, La Musardine, 2003  (ISBN 2-84271-169-6) 
 Confessions of a Left-bank Dominatrix, Blue Moon Books, Avalon, N.Y, 2007
 Gala Strip, La Musardine, 2010
-Night Nurse, Gala Fur et Véronique Bergen, éditions Camion noir, 2014 (ISBN 978-2-35779-542-6)[14]
-Nouvelles
-Monsieur Venus, La piccola biblioteca de Oscar Mondadori, Editions Mondadori Arnoldo Mondadori Editore, Milan, 2008
+Night Nurse, Gala Fur et Véronique Bergen, éditions Camion noir, 2014 (ISBN 978-2-35779-542-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gala_Fur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gala_Fur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Monsieur Venus, La piccola biblioteca de Oscar Mondadori, Editions Mondadori Arnoldo Mondadori Editore, Milan, 2008
 The purple gloves, in Best Lesbian Erotica, Cleis Press, San Francisco, 2009. In Mammoth of Erotica, Londres, 2012
 La patiente du Docteur Goult, dans In/Soumises, recueil présenté par Gala Fur et Wendy Delorme, La Musardine, 2010
 Little Lou, Best Lesbian Erotica 2010, Cleis Press, San Francisco, 2010
@@ -567,39 +654,78 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gala_Fur</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gala_Fur</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Réalisatrice
-2006 : L'Écrivain et son chien, (coréalisateur Pierre Bourgeade)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réalisatrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2006 : L'Écrivain et son chien, (coréalisateur Pierre Bourgeade)
 2006 : Baud'laire promène Médor  (coréalisateur Pierre Bourgeade)
 2008 : L'Arbre de Noël
-2011 : Quatrième sous-sol (avec Léïa dominatrice)
-Coproductrice
-2011: After Fall, Winter, de Eric Schaeffer, 2011 (coproductrice)[15]</t>
+2011 : Quatrième sous-sol (avec Léïa dominatrice)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gala_Fur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gala_Fur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coproductrice</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2011: After Fall, Winter, de Eric Schaeffer, 2011 (coproductrice)</t>
         </is>
       </c>
     </row>
